--- a/cmd/hmn/hmn.xlsx
+++ b/cmd/hmn/hmn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilia\Projects\feedrewind\cmd\hmn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E90EB1-86DB-4249-92D2-17BF996AB1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5B1DCC-64F8-4375-8159-A3FCB7D890C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" xr2:uid="{D50DFA27-8A12-4D15-A3D5-92F3FEDCEADA}"/>
+    <workbookView xWindow="12800" yWindow="14400" windowWidth="12800" windowHeight="15400" xr2:uid="{D50DFA27-8A12-4D15-A3D5-92F3FEDCEADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="136">
   <si>
     <t>feed_root_canonical_url</t>
   </si>
@@ -222,15 +222,6 @@
     <t>bvisness (3)</t>
   </si>
   <si>
-    <t>mynameismjp.wordpress.com/</t>
-  </si>
-  <si>
-    <t>Deleted User (2)</t>
-  </si>
-  <si>
-    <t>the-library (4)</t>
-  </si>
-  <si>
     <t>marc-b-reynolds.github.io/</t>
   </si>
   <si>
@@ -387,9 +378,6 @@
     <t>performance aware programming</t>
   </si>
   <si>
-    <t>memory allocation, language dev</t>
-  </si>
-  <si>
     <t>simd, algorithms, data structures</t>
   </si>
   <si>
@@ -402,15 +390,6 @@
     <t>performance, hardware</t>
   </si>
   <si>
-    <t>gamedev, retro consoles</t>
-  </si>
-  <si>
-    <t>visual explainers</t>
-  </si>
-  <si>
-    <t>c++, concurrency, data structures</t>
-  </si>
-  <si>
     <t>math, algorithms</t>
   </si>
   <si>
@@ -436,6 +415,24 @@
   </si>
   <si>
     <t>handmade.network/fishbowl</t>
+  </si>
+  <si>
+    <t>compression, software optimization</t>
+  </si>
+  <si>
+    <t>the-library (7)</t>
+  </si>
+  <si>
+    <t>memory allocation, odin, language dev</t>
+  </si>
+  <si>
+    <t>c++, multithreading, data structures</t>
+  </si>
+  <si>
+    <t>retro gamedev</t>
+  </si>
+  <si>
+    <t>interactive explainers</t>
   </si>
 </sst>
 </file>
@@ -552,10 +549,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDC47122-EB1D-45FC-B535-518092CBDD14}" name="Table1" displayName="Table1" ref="A1:S42" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
-  <autoFilter ref="A1:S42" xr:uid="{CDC47122-EB1D-45FC-B535-518092CBDD14}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S42">
-    <sortCondition ref="F1:F42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDC47122-EB1D-45FC-B535-518092CBDD14}" name="Table1" displayName="Table1" ref="A1:S41" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+  <autoFilter ref="A1:S41" xr:uid="{CDC47122-EB1D-45FC-B535-518092CBDD14}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S41">
+    <sortCondition ref="F1:F41"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{1C964759-B24C-45E4-AA00-68CB66BD86F2}" name="feed_root_canonical_url"/>
@@ -879,22 +876,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C3AA59-2A1B-493D-B26F-831365CF9ED9}">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.3828125" customWidth="1"/>
     <col min="2" max="2" width="14.4609375" customWidth="1"/>
     <col min="3" max="3" width="9.921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.3828125" style="1" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="8.921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.23046875" style="2"/>
+    <col min="7" max="7" width="7.61328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.15234375" style="2" customWidth="1"/>
     <col min="9" max="9" width="40.07421875" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.23046875" style="1"/>
     <col min="12" max="12" width="10.15234375" style="1" customWidth="1"/>
@@ -924,46 +921,46 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="T1" s="2"/>
       <c r="Y1" s="2"/>
@@ -985,22 +982,22 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1028,14 +1025,14 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1063,14 +1060,14 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1098,11 +1095,11 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1130,11 +1127,11 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1162,11 +1159,11 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1194,14 +1191,14 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1229,11 +1226,11 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1261,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1"/>
       <c r="R10" s="1"/>
@@ -1275,29 +1272,29 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1310,22 +1307,22 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H12" s="1"/>
       <c r="R12" s="1"/>
@@ -1339,13 +1336,13 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>56</v>
@@ -1354,7 +1351,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H13" s="1"/>
       <c r="R13" s="1"/>
@@ -1368,13 +1365,13 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>56</v>
@@ -1383,9 +1380,12 @@
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H14" s="1"/>
+      <c r="I14" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>56</v>
@@ -1412,11 +1412,11 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="2" t="s">
-        <v>110</v>
+      <c r="I15" t="s">
+        <v>108</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>56</v>
@@ -1444,11 +1444,11 @@
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" t="s">
-        <v>111</v>
+      <c r="I16" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1461,26 +1461,34 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="I17" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1493,34 +1501,25 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1533,25 +1532,28 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -1564,28 +1566,28 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1598,28 +1600,25 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1632,25 +1631,25 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1663,25 +1662,25 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -1694,25 +1693,25 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -1725,25 +1724,28 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -1756,28 +1758,25 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -1790,25 +1789,28 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -1821,31 +1823,30 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="S28" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -1855,13 +1856,13 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>56</v>
@@ -1870,15 +1871,15 @@
         <v>3</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -1888,13 +1889,13 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>56</v>
@@ -1903,14 +1904,12 @@
         <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -1921,13 +1920,13 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>56</v>
@@ -1936,10 +1935,13 @@
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -1952,10 +1954,10 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
@@ -1967,13 +1969,10 @@
         <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -1986,25 +1985,26 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2017,26 +2017,23 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2049,23 +2046,23 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2078,19 +2075,19 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="2" t="s">
@@ -2107,19 +2104,19 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="2" t="s">
@@ -2136,23 +2133,23 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -2165,112 +2162,83 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="B39">
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1"/>
+      <c r="I40" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
+      <c r="S41" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
